--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_21.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>548156.0633637044</v>
+        <v>592017.5606359912</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484436</v>
+        <v>492028.9342484443</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7806432.468066818</v>
+        <v>7825371.8633722</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>221.8591097027093</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>313.6191081540379</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.41437548862832</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -832,10 +832,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>244.6331879464497</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -883,7 +883,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>143.1758127043842</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -947,16 +947,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>174.3345703638504</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>60.94899222869572</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -1105,19 +1105,19 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>121.8267090749848</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1133,25 +1133,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>278.254512695598</v>
+        <v>376.7793922922136</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>4.144722368545364</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1309,7 +1309,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>199.4201398804786</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>166.162536832921</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1382,13 +1382,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>129.3727203283493</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>24.34318456170492</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1616,7 +1616,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>155.5776225602624</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1664,7 +1664,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>91.39226931002285</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1777,13 +1777,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>24.34318456170492</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>56.72042565247676</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1856,13 +1856,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>129.7853418074789</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,13 +1895,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>308.8462026865831</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -2014,7 +2014,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>24.34318456170476</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2099,7 +2099,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,10 +2132,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>32.67077719907384</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>71.84692347866375</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2251,7 +2251,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7884964950065</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2305,7 +2305,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>85.55329631630758</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2479,7 +2479,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>43.77283765622104</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2494,7 +2494,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,16 +2524,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>161.6379250432767</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2722,16 +2722,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>111.5098183264947</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
@@ -2962,10 +2962,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>24.34318456170504</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>154.742939422464</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3190,7 +3190,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>52.79556056591044</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3202,10 +3202,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225785</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3427,7 +3427,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3439,10 +3439,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225774</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3487,7 +3487,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>198.9373250430704</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800317</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3673,13 +3673,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3727,7 +3727,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>23.21215624113719</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3740,25 +3740,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791314603</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800142</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3898,10 +3898,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>86.48613679462038</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3913,7 +3913,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -3955,10 +3955,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>187.5234134555182</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -4135,7 +4135,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4150,7 +4150,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -4192,7 +4192,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>123.2901323038666</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4201,7 +4201,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>117.8862381513851</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>949.0361114536327</v>
+        <v>1604.861423395229</v>
       </c>
       <c r="C2" t="n">
-        <v>914.93404267746</v>
+        <v>1166.718950578653</v>
       </c>
       <c r="D2" t="n">
-        <v>486.3523684147282</v>
+        <v>730.8091657530972</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>297.0344209113924</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>273.2073953610042</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018663</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018663</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018663</v>
       </c>
       <c r="J2" t="n">
-        <v>267.8706684926505</v>
+        <v>484.3619720031045</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>1092.064618311664</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.00873048912</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.00873048912</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.00873048912</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.00873048912</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.71137679768</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756275</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509332</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509332</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509332</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509332</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509332</v>
       </c>
       <c r="W2" t="n">
-        <v>1292.327975491451</v>
+        <v>2454.549176960769</v>
       </c>
       <c r="X2" t="n">
-        <v>975.540997558079</v>
+        <v>2035.40671354008</v>
       </c>
       <c r="Y2" t="n">
-        <v>971.2952778981364</v>
+        <v>2031.160993880137</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414794</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>448.8225683781217</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.732279524675</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516287</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677903</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>90.84293673397417</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018663</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.17095771064423</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768566</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1007.431928985416</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028995</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477378</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807948</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.9361456031418</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.0687098420218</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212426</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.0000013632873</v>
+        <v>1000.079750836953</v>
       </c>
       <c r="C4" t="n">
-        <v>546.0000013632873</v>
+        <v>827.5180393201775</v>
       </c>
       <c r="D4" t="n">
-        <v>546.0000013632873</v>
+        <v>789.7257408468156</v>
       </c>
       <c r="E4" t="n">
-        <v>376.2419976140245</v>
+        <v>619.9677370975529</v>
       </c>
       <c r="F4" t="n">
-        <v>199.5349435757807</v>
+        <v>443.2606830593091</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>277.6694080851368</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>137.7672337755113</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018663</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>49.10728455018663</v>
       </c>
       <c r="K4" t="n">
-        <v>120.5233537662982</v>
+        <v>323.8657391213222</v>
       </c>
       <c r="L4" t="n">
-        <v>538.7332355342593</v>
+        <v>742.0756208892833</v>
       </c>
       <c r="M4" t="n">
-        <v>538.7332355342593</v>
+        <v>1201.559488070196</v>
       </c>
       <c r="N4" t="n">
-        <v>958.7861344791625</v>
+        <v>1643.818291227841</v>
       </c>
       <c r="O4" t="n">
-        <v>1349.676536110076</v>
+        <v>1939.664558674657</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2287.171452644999</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509332</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2433.946406214704</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>2274.7050375127</v>
       </c>
       <c r="T4" t="n">
-        <v>1537.942061378414</v>
+        <v>2274.7050375127</v>
       </c>
       <c r="U4" t="n">
-        <v>1537.942061378414</v>
+        <v>1996.272036765805</v>
       </c>
       <c r="V4" t="n">
-        <v>1290.837831129475</v>
+        <v>1709.316528636236</v>
       </c>
       <c r="W4" t="n">
-        <v>1018.811426715767</v>
+        <v>1437.290124222527</v>
       </c>
       <c r="X4" t="n">
-        <v>773.4196720491791</v>
+        <v>1191.89836955594</v>
       </c>
       <c r="Y4" t="n">
-        <v>546.0000013632873</v>
+        <v>1191.89836955594</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263.9964487731802</v>
+        <v>981.0148405224497</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>946.912771746277</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>511.0029869207216</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>1107.976466382457</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1477.116202953456</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1477.116202953456</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V5" t="n">
-        <v>1114.499252887282</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="W5" t="n">
-        <v>1113.68420233872</v>
+        <v>2234.742998128394</v>
       </c>
       <c r="X5" t="n">
-        <v>694.5417389180305</v>
+        <v>1815.600534707704</v>
       </c>
       <c r="Y5" t="n">
-        <v>286.255615217684</v>
+        <v>1407.314411007358</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>600.6587786275059</v>
+        <v>1028.432740781182</v>
       </c>
       <c r="C7" t="n">
-        <v>428.0970671107308</v>
+        <v>855.8710292644067</v>
       </c>
       <c r="D7" t="n">
-        <v>428.0970671107308</v>
+        <v>689.9930364659294</v>
       </c>
       <c r="E7" t="n">
-        <v>428.0970671107308</v>
+        <v>520.2350327166666</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>343.5279786784229</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>395.2818083374338</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>815.3347072823371</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>815.3347072823371</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1235.003956508118</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.51085047846</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>1393.466958189862</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
-        <v>1115.033957442967</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>828.0784493133976</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="W7" t="n">
-        <v>828.0784493133976</v>
+        <v>1693.062784852648</v>
       </c>
       <c r="X7" t="n">
-        <v>828.0784493133976</v>
+        <v>1447.671030186061</v>
       </c>
       <c r="Y7" t="n">
-        <v>600.6587786275059</v>
+        <v>1220.251359500169</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>809.4501956588091</v>
+        <v>1331.865744460759</v>
       </c>
       <c r="C8" t="n">
-        <v>775.3481268826365</v>
+        <v>893.723271644182</v>
       </c>
       <c r="D8" t="n">
-        <v>743.4787460974851</v>
+        <v>861.8538908590306</v>
       </c>
       <c r="E8" t="n">
-        <v>462.4135817584972</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F8" t="n">
-        <v>438.586556208109</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>37.18872483137284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>37.18872483137284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>36.77193545851284</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="K8" t="n">
-        <v>36.77193545851284</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="L8" t="n">
-        <v>491.8246367576093</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="M8" t="n">
-        <v>491.8246367576093</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="N8" t="n">
-        <v>491.8246367576093</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O8" t="n">
-        <v>759.3373055743924</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1214.390006873489</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1669.442708172585</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925642</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925642</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1618.529545798681</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>1618.529545798681</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V8" t="n">
-        <v>1255.912595732507</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W8" t="n">
-        <v>1255.097545183945</v>
+        <v>2181.553498026298</v>
       </c>
       <c r="X8" t="n">
-        <v>835.9550817632554</v>
+        <v>1762.411034605609</v>
       </c>
       <c r="Y8" t="n">
-        <v>831.7093621033129</v>
+        <v>1354.124910905262</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498056</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864479</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.3969304330012</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599549</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761165</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230036</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897044</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851828</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>387.3939335851828</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>387.3939335851828</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>387.3939335851828</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>387.3939335851828</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>672.7335162447889</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543885</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.733360750348</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295687</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>861.5987313468627</v>
+        <v>966.5813843420327</v>
       </c>
       <c r="C10" t="n">
-        <v>689.0370198300876</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="D10" t="n">
-        <v>523.1590270316103</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>518.9724387805544</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>342.2653847423106</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>176.6741097681383</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>36.77193545851284</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>123.3516206232027</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>398.1100751943383</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>816.3199569622993</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1271.372658261396</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1322.897104090968</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1322.897104090968</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1670.40399806131</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925642</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1817.178951631014</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1657.937582929011</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1412.058136507466</v>
+        <v>2468.626341703672</v>
       </c>
       <c r="U10" t="n">
-        <v>1133.625135760571</v>
+        <v>2190.193340956777</v>
       </c>
       <c r="V10" t="n">
-        <v>1133.625135760571</v>
+        <v>1903.237832827208</v>
       </c>
       <c r="W10" t="n">
-        <v>861.5987313468627</v>
+        <v>1631.211428413499</v>
       </c>
       <c r="X10" t="n">
-        <v>861.5987313468627</v>
+        <v>1385.819673746912</v>
       </c>
       <c r="Y10" t="n">
-        <v>861.5987313468627</v>
+        <v>1158.40000306102</v>
       </c>
     </row>
     <row r="11">
@@ -5015,52 +5015,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2252.656868168567</v>
+        <v>2252.656868168568</v>
       </c>
       <c r="C11" t="n">
-        <v>2084.815921872688</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D11" t="n">
-        <v>1648.906137047132</v>
+        <v>1378.604610526436</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.131392205427</v>
+        <v>944.829865684731</v>
       </c>
       <c r="F11" t="n">
-        <v>787.263962614635</v>
+        <v>516.9624360939388</v>
       </c>
       <c r="G11" t="n">
-        <v>385.8661312378989</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H11" t="n">
-        <v>96.73597668111518</v>
+        <v>97.15276605397518</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J11" t="n">
         <v>531.9906641340331</v>
       </c>
       <c r="K11" t="n">
-        <v>531.9906641340331</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L11" t="n">
-        <v>1607.050630386892</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M11" t="n">
-        <v>2312.656441940405</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940405</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510712</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344108</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302702</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R11" t="n">
         <v>4836.798834055759</v>
@@ -5069,22 +5069,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112634</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.857430429651</v>
+        <v>4273.857430429652</v>
       </c>
       <c r="V11" t="n">
-        <v>3911.240480363477</v>
+        <v>3911.240480363478</v>
       </c>
       <c r="W11" t="n">
-        <v>3506.385025774511</v>
+        <v>3506.385025774512</v>
       </c>
       <c r="X11" t="n">
         <v>3087.242562353822</v>
       </c>
       <c r="Y11" t="n">
-        <v>2678.956438653475</v>
+        <v>2678.956438653476</v>
       </c>
     </row>
     <row r="12">
@@ -5112,7 +5112,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I12" t="n">
         <v>122.7996498415728</v>
@@ -5133,7 +5133,7 @@
         <v>447.3579748077851</v>
       </c>
       <c r="O12" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P12" t="n">
         <v>1102.064021433509</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>806.2298140987272</v>
+        <v>1087.134188067672</v>
       </c>
       <c r="C13" t="n">
-        <v>633.6681025819521</v>
+        <v>914.5724765508968</v>
       </c>
       <c r="D13" t="n">
-        <v>467.7901097834749</v>
+        <v>748.6944837524195</v>
       </c>
       <c r="E13" t="n">
-        <v>298.0321060342121</v>
+        <v>578.9364800031567</v>
       </c>
       <c r="F13" t="n">
-        <v>121.3250519959684</v>
+        <v>402.2294259649129</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111518</v>
+        <v>236.6381509907407</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J13" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K13" t="n">
         <v>458.0741164169406</v>
@@ -5224,25 +5224,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2554.154217881911</v>
+        <v>2589.179145429311</v>
       </c>
       <c r="T13" t="n">
-        <v>2308.274771460367</v>
+        <v>2589.179145429311</v>
       </c>
       <c r="U13" t="n">
-        <v>2029.841770713472</v>
+        <v>2310.746144682416</v>
       </c>
       <c r="V13" t="n">
-        <v>1742.886262583902</v>
+        <v>2023.790636552847</v>
       </c>
       <c r="W13" t="n">
-        <v>1470.859858170194</v>
+        <v>1751.764232139138</v>
       </c>
       <c r="X13" t="n">
-        <v>1225.468103503606</v>
+        <v>1506.372477472551</v>
       </c>
       <c r="Y13" t="n">
-        <v>998.0484328177142</v>
+        <v>1278.952806786659</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2522.958394689264</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.815921872687</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.906137047132</v>
+        <v>1378.604610526435</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.131392205427</v>
+        <v>944.8298656847298</v>
       </c>
       <c r="F14" t="n">
-        <v>787.263962614635</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G14" t="n">
-        <v>385.8661312378989</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H14" t="n">
-        <v>96.73597668111519</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J14" t="n">
-        <v>96.73597668111519</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K14" t="n">
-        <v>931.0862686392932</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L14" t="n">
-        <v>2006.146234892153</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M14" t="n">
-        <v>2006.146234892153</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="N14" t="n">
-        <v>2481.810506693463</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="O14" t="n">
-        <v>3461.990173263769</v>
+        <v>3461.990173263768</v>
       </c>
       <c r="P14" t="n">
-        <v>4290.300048097165</v>
+        <v>4290.300048097164</v>
       </c>
       <c r="Q14" t="n">
         <v>4836.798834055759</v>
@@ -5306,22 +5306,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.079733112635</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U14" t="n">
-        <v>4273.857430429652</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.542006884174</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W14" t="n">
-        <v>3776.686552295208</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.544088874518</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.257965174172</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="15">
@@ -5349,7 +5349,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I15" t="n">
         <v>122.7996498415728</v>
@@ -5358,19 +5358,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L15" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M15" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N15" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O15" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>806.2298140987272</v>
+        <v>1035.891962983371</v>
       </c>
       <c r="C16" t="n">
-        <v>633.6681025819521</v>
+        <v>863.330251466596</v>
       </c>
       <c r="D16" t="n">
-        <v>467.7901097834749</v>
+        <v>697.4522586681187</v>
       </c>
       <c r="E16" t="n">
-        <v>298.0321060342121</v>
+        <v>527.6942549188559</v>
       </c>
       <c r="F16" t="n">
-        <v>121.3250519959684</v>
+        <v>350.9872008806122</v>
       </c>
       <c r="G16" t="n">
-        <v>96.73597668111519</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111519</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J16" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K16" t="n">
         <v>458.0741164169406</v>
@@ -5470,16 +5470,16 @@
         <v>2029.841770713472</v>
       </c>
       <c r="V16" t="n">
-        <v>1742.886262583902</v>
+        <v>1972.548411468546</v>
       </c>
       <c r="W16" t="n">
-        <v>1470.859858170194</v>
+        <v>1700.522007054838</v>
       </c>
       <c r="X16" t="n">
-        <v>1225.468103503606</v>
+        <v>1455.13025238825</v>
       </c>
       <c r="Y16" t="n">
-        <v>998.0484328177142</v>
+        <v>1227.710581702358</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2523.375184062124</v>
+        <v>2252.656868168568</v>
       </c>
       <c r="C17" t="n">
-        <v>2085.232711245548</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D17" t="n">
-        <v>1649.322926419992</v>
+        <v>1378.604610526435</v>
       </c>
       <c r="E17" t="n">
-        <v>1215.548181578287</v>
+        <v>944.8298656847305</v>
       </c>
       <c r="F17" t="n">
-        <v>787.6807519874951</v>
+        <v>516.9624360939382</v>
       </c>
       <c r="G17" t="n">
-        <v>386.282920610759</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H17" t="n">
-        <v>97.1527660539752</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I17" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J17" t="n">
         <v>531.9906641340331</v>
@@ -5522,43 +5522,43 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M17" t="n">
-        <v>2441.40092234507</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="N17" t="n">
-        <v>2441.40092234507</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="O17" t="n">
-        <v>3421.580588915377</v>
+        <v>3461.990173263768</v>
       </c>
       <c r="P17" t="n">
-        <v>4249.890463748773</v>
+        <v>4290.300048097164</v>
       </c>
       <c r="Q17" t="n">
-        <v>4796.389249707368</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R17" t="n">
-        <v>4836.79883405576</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S17" t="n">
-        <v>4753.146960239597</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T17" t="n">
-        <v>4753.146960239597</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U17" t="n">
-        <v>4493.924657556614</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V17" t="n">
-        <v>4181.958796257035</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.103341668068</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X17" t="n">
-        <v>3357.960878247379</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y17" t="n">
-        <v>2949.674754547033</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="18">
@@ -5586,28 +5586,28 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I18" t="n">
         <v>122.7996498415728</v>
       </c>
       <c r="J18" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K18" t="n">
-        <v>447.3579748077852</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L18" t="n">
-        <v>447.3579748077852</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M18" t="n">
-        <v>447.3579748077852</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N18" t="n">
-        <v>447.3579748077852</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O18" t="n">
-        <v>447.3579748077852</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P18" t="n">
         <v>1102.064021433509</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>806.2298140987274</v>
+        <v>947.2320137580462</v>
       </c>
       <c r="C19" t="n">
-        <v>633.6681025819523</v>
+        <v>774.6703022412714</v>
       </c>
       <c r="D19" t="n">
-        <v>467.790109783475</v>
+        <v>608.7923094427941</v>
       </c>
       <c r="E19" t="n">
-        <v>298.0321060342123</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F19" t="n">
-        <v>121.3250519959685</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G19" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H19" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I19" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J19" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K19" t="n">
         <v>458.0741164169406</v>
@@ -5698,25 +5698,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S19" t="n">
-        <v>2554.154217881911</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T19" t="n">
-        <v>2308.274771460367</v>
+        <v>2449.276971119685</v>
       </c>
       <c r="U19" t="n">
-        <v>2029.841770713472</v>
+        <v>2170.84397037279</v>
       </c>
       <c r="V19" t="n">
-        <v>1742.886262583902</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W19" t="n">
-        <v>1470.859858170194</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X19" t="n">
-        <v>1225.468103503606</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y19" t="n">
-        <v>998.0484328177145</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2523.375184062124</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C20" t="n">
-        <v>2085.232711245548</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D20" t="n">
-        <v>1649.322926419992</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E20" t="n">
-        <v>1215.548181578287</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F20" t="n">
-        <v>787.6807519874951</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G20" t="n">
-        <v>386.282920610759</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H20" t="n">
-        <v>97.15276605397526</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I20" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J20" t="n">
-        <v>96.7359766811152</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K20" t="n">
-        <v>931.0862686392932</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L20" t="n">
-        <v>2006.146234892153</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M20" t="n">
-        <v>2006.146234892153</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N20" t="n">
-        <v>2481.810506693464</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O20" t="n">
-        <v>3461.99017326377</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P20" t="n">
-        <v>4290.300048097166</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q20" t="n">
-        <v>4836.79883405576</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R20" t="n">
-        <v>4836.79883405576</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S20" t="n">
-        <v>4836.79883405576</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="T20" t="n">
-        <v>4803.798049006191</v>
+        <v>4616.731606928797</v>
       </c>
       <c r="U20" t="n">
-        <v>4544.575746323208</v>
+        <v>4544.158956950349</v>
       </c>
       <c r="V20" t="n">
-        <v>4181.958796257034</v>
+        <v>4181.542006884175</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.103341668068</v>
+        <v>3776.686552295208</v>
       </c>
       <c r="X20" t="n">
-        <v>3357.960878247378</v>
+        <v>3357.544088874519</v>
       </c>
       <c r="Y20" t="n">
-        <v>2949.674754547032</v>
+        <v>2949.257965174172</v>
       </c>
     </row>
     <row r="21">
@@ -5823,13 +5823,13 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H21" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I21" t="n">
         <v>122.7996498415728</v>
       </c>
       <c r="J21" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K21" t="n">
         <v>1102.064021433509</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>947.2320137580466</v>
+        <v>944.0533615061029</v>
       </c>
       <c r="C22" t="n">
-        <v>774.6703022412715</v>
+        <v>771.4916499893278</v>
       </c>
       <c r="D22" t="n">
-        <v>608.7923094427942</v>
+        <v>605.6136571908505</v>
       </c>
       <c r="E22" t="n">
-        <v>439.0343056935313</v>
+        <v>435.8556534415878</v>
       </c>
       <c r="F22" t="n">
-        <v>262.3272516552876</v>
+        <v>259.148599403344</v>
       </c>
       <c r="G22" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H22" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I22" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J22" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K22" t="n">
         <v>458.0741164169406</v>
@@ -5932,28 +5932,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R22" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S22" t="n">
-        <v>2554.154217881911</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="T22" t="n">
-        <v>2308.274771460367</v>
+        <v>2446.098318867742</v>
       </c>
       <c r="U22" t="n">
-        <v>2029.841770713473</v>
+        <v>2167.665318120847</v>
       </c>
       <c r="V22" t="n">
-        <v>1742.886262583903</v>
+        <v>1880.709809991278</v>
       </c>
       <c r="W22" t="n">
-        <v>1470.859858170195</v>
+        <v>1608.683405577569</v>
       </c>
       <c r="X22" t="n">
-        <v>1225.468103503607</v>
+        <v>1363.291650910982</v>
       </c>
       <c r="Y22" t="n">
-        <v>1139.050632477034</v>
+        <v>1135.87198022509</v>
       </c>
     </row>
     <row r="23">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>970.9960463903955</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C25" t="n">
-        <v>798.4343348736203</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D25" t="n">
-        <v>754.2193473420839</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2473.041003752035</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="U25" t="n">
-        <v>2194.60800300514</v>
+        <v>2281.246080724681</v>
       </c>
       <c r="V25" t="n">
-        <v>1907.65249487557</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W25" t="n">
-        <v>1635.626090461862</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X25" t="n">
-        <v>1390.234335795274</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y25" t="n">
-        <v>1162.814665109383</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>811.7546776883918</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>639.1929661716167</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>473.3149733731394</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>303.5569696238767</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>190.9207894961043</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>811.7546776883921</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C31" t="n">
-        <v>639.1929661716171</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D31" t="n">
-        <v>473.3149733731397</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E31" t="n">
-        <v>303.556969623877</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F31" t="n">
-        <v>126.8499155856332</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6661,10 +6661,10 @@
         <v>1476.384721759859</v>
       </c>
       <c r="X31" t="n">
-        <v>1230.992967093271</v>
+        <v>1320.078722343228</v>
       </c>
       <c r="Y31" t="n">
-        <v>1003.573296407379</v>
+        <v>1092.659051657336</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>1068.769857140659</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>896.208145623884</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674088</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>673.121292818146</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6859,13 +6859,13 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L34" t="n">
         <v>881.8088617745661</v>
       </c>
       <c r="M34" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.29272895548</v>
       </c>
       <c r="N34" t="n">
         <v>1783.551532113124</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>2005.426305625834</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1733.399901212125</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1488.008146545538</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1260.588475859646</v>
       </c>
     </row>
     <row r="35">
@@ -6935,28 +6935,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532228</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477109</v>
+        <v>1015.441008084184</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7120,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1434.679297489063</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1207.259626803171</v>
       </c>
     </row>
     <row r="38">
@@ -7160,43 +7160,43 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L38" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M38" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S38" t="n">
         <v>5029.390139722817</v>
@@ -7242,10 +7242,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H39" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I39" t="n">
         <v>128.3245134312372</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1015.727725908489</v>
+        <v>952.756877347711</v>
       </c>
       <c r="C40" t="n">
-        <v>843.1660143917136</v>
+        <v>780.1951658309359</v>
       </c>
       <c r="D40" t="n">
-        <v>677.2880215932363</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E40" t="n">
-        <v>507.5300178439736</v>
+        <v>444.5591692831959</v>
       </c>
       <c r="F40" t="n">
-        <v>330.8229638057297</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I40" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J40" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L40" t="n">
         <v>881.8088617745661</v>
@@ -7357,25 +7357,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1207.546344627476</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835214</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I41" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J41" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K41" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L41" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M41" t="n">
-        <v>3603.973621145286</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="N41" t="n">
-        <v>4729.704604581732</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O41" t="n">
-        <v>4729.704604581732</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P41" t="n">
-        <v>4729.704604581732</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="42">
@@ -7479,10 +7479,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H42" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I42" t="n">
         <v>128.3245134312372</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1181.319000882661</v>
+        <v>790.3368563937635</v>
       </c>
       <c r="C43" t="n">
-        <v>1008.757289365886</v>
+        <v>790.3368563937635</v>
       </c>
       <c r="D43" t="n">
-        <v>842.8792965674087</v>
+        <v>702.9771222577833</v>
       </c>
       <c r="E43" t="n">
-        <v>673.121292818146</v>
+        <v>533.2191185085205</v>
       </c>
       <c r="F43" t="n">
-        <v>496.4142387799021</v>
+        <v>356.5120644702768</v>
       </c>
       <c r="G43" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H43" t="n">
         <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J43" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L43" t="n">
         <v>881.8088617745661</v>
@@ -7591,28 +7591,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T43" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U43" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V43" t="n">
-        <v>2035.366634303136</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W43" t="n">
-        <v>1845.949044954128</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X43" t="n">
-        <v>1600.55729028754</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y43" t="n">
-        <v>1373.137619601648</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="44">
@@ -7628,16 +7628,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
         <v>102.6776296436396</v>
@@ -7646,31 +7646,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>306.120802776629</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>306.120802776629</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>306.120802776629</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>1463.16863798718</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
         <v>5029.390139722817</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>920.0973401405612</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
         <v>102.2608402707796</v>
@@ -7828,28 +7828,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T46" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U46" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1111.915958859548</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>236.2898988798406</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773329</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>40.34758805803654</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7994,10 +7994,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773329</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,16 +8058,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773329</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>47.47818213854953</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>394.8387895261749</v>
+        <v>298.834613582643</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8377,13 +8377,13 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8392,7 +8392,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>115.8308884868254</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>459.6491932314105</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>270.2148169866497</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314105</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314107</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8535,7 +8535,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>288.2218006662688</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>459.6491932314105</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314107</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8617,13 +8617,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314105</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>52.04489477734592</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -8690,13 +8690,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>712.7331429833466</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>40.81776196807277</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8781,10 +8781,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -8933,10 +8933,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="N14" t="n">
-        <v>480.4689614154649</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9170,7 +9170,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>40.81776196807368</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>480.4689614154659</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9881,22 +9881,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
@@ -10118,22 +10118,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10826,13 +10826,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>92.22506899525706</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11066,19 +11066,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>216.3468123274661</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697543</v>
@@ -11294,19 +11294,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>205.9191540463125</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>267.5985112554899</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>268.0111327346194</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23464,10 +23464,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>34.67467827192567</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>268.0111327346219</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.5985112554889</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>227.3655273957971</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23744,13 +23744,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>267.5985112554898</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23783,13 +23783,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>50.14457787892866</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24020,10 +24020,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>185.1957776566179</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>184.7831561774895</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24139,7 +24139,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>3.146865729424121</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>139.5921776627252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>120.4463752142715</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,16 +24412,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>122.4480280049972</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>63.43016517136668</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24850,10 +24850,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>88.19489769745761</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>111.4236523045821</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25120,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627256</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>44.00051207685121</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>201.9333177378956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,10 +25786,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>77.73307607587215</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,10 +25843,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>81.7827269140532</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>160.7958207444072</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>107.2592358276477</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>675176.906651804</v>
+        <v>681008.4657428163</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>675176.906651804</v>
+        <v>682659.8078864045</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>676264.5895209245</v>
+        <v>682659.8078864045</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>657950.8810737423</v>
+        <v>657950.8810737424</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>657950.8810737424</v>
+        <v>657950.8810737423</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>657950.8810737425</v>
+        <v>657950.8810737422</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>685717.1601073868</v>
+        <v>685717.1601073869</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>685717.1601073868</v>
+        <v>685717.1601073866</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>685717.1601073868</v>
+        <v>685717.1601073869</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>685717.1601073868</v>
+        <v>685717.1601073869</v>
       </c>
     </row>
   </sheetData>
@@ -26323,13 +26323,13 @@
         <v>265400.0464351302</v>
       </c>
       <c r="F2" t="n">
-        <v>265400.0464351302</v>
+        <v>265400.0464351301</v>
       </c>
       <c r="G2" t="n">
         <v>265400.0464351301</v>
       </c>
       <c r="H2" t="n">
-        <v>265400.0464351302</v>
+        <v>265400.0464351301</v>
       </c>
       <c r="I2" t="n">
         <v>276600.2316721099</v>
@@ -26347,7 +26347,7 @@
         <v>276600.2316721099</v>
       </c>
       <c r="N2" t="n">
-        <v>276600.23167211</v>
+        <v>276600.2316721099</v>
       </c>
       <c r="O2" t="n">
         <v>276600.2316721099</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039024</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390712</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200304</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.293752027</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.7156328394</v>
+        <v>18364.71563283952</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856129</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784551</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088510197</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104674</v>
+        <v>134989.9446130035</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187564.5330558133</v>
+        <v>150016.382848574</v>
       </c>
       <c r="C4" t="n">
-        <v>187564.5330558133</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="D4" t="n">
-        <v>180561.1778449367</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
         <v>39457.78817960744</v>
@@ -26451,10 +26451,10 @@
         <v>41122.95192991271</v>
       </c>
       <c r="N4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991264</v>
       </c>
       <c r="O4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.9519299127</v>
       </c>
       <c r="P4" t="n">
         <v>41122.95192991272</v>
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814184</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846976</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
+        <v>73519.34227764753</v>
+      </c>
+      <c r="F5" t="n">
         <v>73519.34227764752</v>
       </c>
-      <c r="F5" t="n">
-        <v>73519.34227764753</v>
-      </c>
       <c r="G5" t="n">
-        <v>73519.34227764755</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="H5" t="n">
-        <v>73519.34227764755</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26503,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-107703.278910281</v>
+        <v>-145200.4326681538</v>
       </c>
       <c r="C6" t="n">
-        <v>34488.02174942889</v>
+        <v>50540.52676789513</v>
       </c>
       <c r="D6" t="n">
-        <v>28360.087477055</v>
+        <v>67881.07114180225</v>
       </c>
       <c r="E6" t="n">
-        <v>-71376.3777741518</v>
+        <v>-9388.71778703601</v>
       </c>
       <c r="F6" t="n">
-        <v>152422.9159778752</v>
+        <v>152346.3574230783</v>
       </c>
       <c r="G6" t="n">
-        <v>152422.9159778751</v>
+        <v>152346.3574230784</v>
       </c>
       <c r="H6" t="n">
-        <v>152422.9159778752</v>
+        <v>152346.3574230783</v>
       </c>
       <c r="I6" t="n">
-        <v>139394.3255035653</v>
+        <v>139371.1011641824</v>
       </c>
       <c r="J6" t="n">
-        <v>46744.57579141445</v>
+        <v>-2872.012688590903</v>
       </c>
       <c r="K6" t="n">
-        <v>157759.0411364046</v>
+        <v>143921.8082291765</v>
       </c>
       <c r="L6" t="n">
-        <v>148811.4300478944</v>
+        <v>157735.816797022</v>
       </c>
       <c r="M6" t="n">
-        <v>-29031.94547406268</v>
+        <v>22745.87218401856</v>
       </c>
       <c r="N6" t="n">
-        <v>157759.0411364048</v>
+        <v>157735.8167970221</v>
       </c>
       <c r="O6" t="n">
-        <v>157759.0411364047</v>
+        <v>157735.8167970221</v>
       </c>
       <c r="P6" t="n">
-        <v>157759.0411364047</v>
+        <v>157735.816797022</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773329</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314105</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.19970851394</v>
@@ -26823,10 +26823,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="O4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="P4" t="n">
         <v>1278.260503384745</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773329</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052405</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130619</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825291</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080524</v>
+        <v>69.06079487080569</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773329</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052405</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130619</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825291</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773329</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052405</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130619</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825291</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>175.5247433602594</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -27439,10 +27439,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>101.3319306324445</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>126.8048373818642</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,10 +27591,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>39.45276510182416</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
-        <v>290.5852353840268</v>
-      </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27667,16 +27667,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>226.4723296792266</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>102.9863699957349</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27825,19 +27825,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>121.5939428823445</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,25 +27853,25 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>151.1824846976897</v>
+        <v>52.65760510107413</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>163.9157013432248</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>44.0005120768507</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>-6.272377253606402e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>-6.272377253606402e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>-6.272377253606402e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>-6.272377253606402e-14</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>-6.272377253606402e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-6.272377253606402e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>-6.272377253606402e-14</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>-6.272377253606402e-14</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,10 +30508,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-6.272377253606402e-14</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>-6.272377253606402e-14</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>236.2898988798406</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773329</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>40.34758805803654</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34714,10 +34714,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773329</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,22 +34772,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773329</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>47.47818213854953</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>394.8387895261749</v>
+        <v>298.834613582643</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>115.8308884868254</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>459.6491932314105</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>270.2148169866497</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314105</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314107</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35255,7 +35255,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>288.2218006662688</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>459.6491932314105</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314107</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,16 +35337,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314105</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>52.04489477734592</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35410,13 +35410,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>712.7331429833466</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -35425,13 +35425,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>40.81776196807277</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35501,10 +35501,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -35653,10 +35653,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="N14" t="n">
-        <v>480.4689614154649</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35890,7 +35890,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35899,13 +35899,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>40.81776196807368</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -36130,19 +36130,19 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>480.4689614154659</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36996,13 +36996,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645588</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37230,10 +37230,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645591</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37473,10 +37473,10 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>446.7260637956008</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37540,19 +37540,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>92.22506899525706</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K39" t="n">
         <v>661.3192390158824</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37713,7 +37713,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>216.3468123274661</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
         <v>170.862691669754</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K42" t="n">
         <v>661.3192390158824</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37956,7 +37956,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821539</v>
+        <v>169.891691782153</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,19 +38014,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>205.9191540463125</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908064</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
